--- a/data-raw/FlowerDataProcessing-SBB-test-03.xlsx
+++ b/data-raw/FlowerDataProcessing-SBB-test-03.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arr/Desktop/workshop_2025-TerraLID-ASTR /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2A10E7F-6739-A54E-89AF-1E3AA20EB084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298FD00-6A5B-1B4F-9E2D-8ED2E1BC61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="740" windowWidth="27060" windowHeight="17960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Flower-SBB-test-1" sheetId="4" r:id="rId1"/>
+    <sheet name="Flower-SBB-test-03" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -141,7 +141,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,7 +503,7 @@
         <v>0.99858275157333809</v>
       </c>
       <c r="E3" s="6">
-        <f>(B3/AVERAGE((SUM($B$2*0.6,$B$6*0.4)/1),(SUM($B$2*0.6,$B$6*0.4)/1)))</f>
+        <f>(B3/AVERAGE((SUM($B$2*0.6,$B$6*0.4)/1)))</f>
         <v>0.99858536474297166</v>
       </c>
     </row>
@@ -522,7 +522,7 @@
         <v>0.99864739053732543</v>
       </c>
       <c r="E4" s="6">
-        <f>(B4/AVERAGE((SUM($B$2*0.6,$B$6*0.4)/1),(SUM($B$2*0.6,$B$6*0.4)/1)))</f>
+        <f t="shared" ref="E4:E5" si="0">(B4/AVERAGE((SUM($B$2*0.6,$B$6*0.4)/1)))</f>
         <v>0.99865000387611125</v>
       </c>
       <c r="F4" s="4"/>
@@ -542,7 +542,7 @@
         <v>0.99860377601145167</v>
       </c>
       <c r="E5" s="6">
-        <f>(B5/AVERAGE((SUM($B$2*0.6,$B$6*0.4)/1),(SUM($B$2*0.6,$B$6*0.4)/1)))</f>
+        <f t="shared" si="0"/>
         <v>0.99860638923610356</v>
       </c>
       <c r="F5" s="4"/>
@@ -576,7 +576,7 @@
         <v>0.99936144210751388</v>
       </c>
       <c r="E7" s="6">
-        <f>(B7/AVERAGE((SUM($B$6*0.6,$B$10*0.4)/1),(SUM($B$6*0.6,$B$10*0.4)/1)))</f>
+        <f>(B7/AVERAGE((SUM($B$6*0.6,$B$10*0.4)/1)))</f>
         <v>0.99935992217254821</v>
       </c>
       <c r="F7" s="4"/>
@@ -596,7 +596,7 @@
         <v>0.99864191820554282</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" ref="E8:E9" si="0">(B8/AVERAGE((SUM($B$6*0.6,$B$10*0.4)/1),(SUM($B$6*0.6,$B$10*0.4)/1)))</f>
+        <f t="shared" ref="E8:E9" si="1">(B8/AVERAGE((SUM($B$6*0.6,$B$10*0.4)/1)))</f>
         <v>0.99864039936490534</v>
       </c>
       <c r="F8" s="4"/>
@@ -619,7 +619,7 @@
         <v>0.99857727959576048</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99857576085343236</v>
       </c>
       <c r="F9" s="4"/>
@@ -653,7 +653,7 @@
         <v>0.99868963435575853</v>
       </c>
       <c r="E11" s="6">
-        <f>(B11/AVERAGE((SUM($B$10*0.6,$B$14*0.4)/1),(SUM($B$10*0.6,$B$14*0.4)/1)))</f>
+        <f>(B11/AVERAGE((SUM($B$10*0.6,$B$14*0.4)/1)))</f>
         <v>0.99868568061533469</v>
       </c>
       <c r="F11" s="4"/>
@@ -673,7 +673,7 @@
         <v>0.99920541538769858</v>
       </c>
       <c r="E12" s="6">
-        <f t="shared" ref="E12:E13" si="1">(B12/AVERAGE((SUM($B$10*0.6,$B$14*0.4)/1),(SUM($B$10*0.6,$B$14*0.4)/1)))</f>
+        <f t="shared" ref="E12:E13" si="2">(B12/AVERAGE((SUM($B$10*0.6,$B$14*0.4)/1)))</f>
         <v>0.9992014596053348</v>
       </c>
       <c r="F12" s="4"/>
@@ -693,7 +693,7 @@
         <v>0.99935035298904162</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99934639663288038</v>
       </c>
       <c r="F13" s="4"/>
